--- a/data/trans_orig/P32-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P32-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FFB2994-878E-4DD6-A06C-E61C4D4A276E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE16E817-5828-4109-997E-BB71E24E0968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{70A7F9E6-D56B-4834-AE97-245CF6D4E59C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{74647D87-767D-482A-89FD-B04994A63A06}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="441">
   <si>
     <t>Población según si han pensado que deberían beber menos en 2007 (Tasa respuesta: 41,78%)</t>
   </si>
@@ -77,1321 +77,1291 @@
     <t>5,18%</t>
   </si>
   <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2012 (Tasa respuesta: 44,32%)</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
   </si>
   <si>
     <t>98,99%</t>
   </si>
   <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,99%</t>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2015 (Tasa respuesta: 45,47%)</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2023 (Tasa respuesta: 31,92%)</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
   </si>
   <si>
     <t>1,72%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
   </si>
   <si>
     <t>98,28%</t>
   </si>
   <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2012 (Tasa respuesta: 44,32%)</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2015 (Tasa respuesta: 45,47%)</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
   </si>
   <si>
     <t>3,1%</t>
   </si>
   <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
   </si>
   <si>
     <t>96,9%</t>
   </si>
   <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2023 (Tasa respuesta: 31,92%)</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
   </si>
   <si>
     <t>97,04%</t>
   </si>
   <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
     <t>6,34%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
   </si>
   <si>
     <t>2,32%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
   </si>
   <si>
     <t>93,66%</t>
   </si>
   <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
   </si>
   <si>
     <t>97,68%</t>
   </si>
   <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>0,75%</t>
+    <t>0,76%</t>
   </si>
   <si>
     <t>3,58%</t>
   </si>
   <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>99,25%</t>
+    <t>99,24%</t>
   </si>
   <si>
     <t>96,42%</t>
   </si>
   <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
   </si>
   <si>
     <t>9,47%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
   </si>
   <si>
     <t>7,43%</t>
   </si>
   <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
+    <t>10,0%</t>
   </si>
   <si>
     <t>90,53%</t>
   </si>
   <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
   </si>
   <si>
     <t>92,57%</t>
   </si>
   <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>2,37%</t>
+    <t>2,38%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
   </si>
   <si>
     <t>99,17%</t>
   </si>
   <si>
-    <t>97,63%</t>
+    <t>97,62%</t>
   </si>
   <si>
     <t>97,1%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
   </si>
   <si>
     <t>97,27%</t>
   </si>
   <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
   </si>
 </sst>
 </file>
@@ -1803,7 +1773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95558956-B2CB-4C43-94F5-4945DC0FFB59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D037A60A-CF1C-420A-8BF6-6C1F4FF89227}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2428,7 +2398,7 @@
         <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,13 +2413,13 @@
         <v>309776</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>137</v>
@@ -2458,10 +2428,10 @@
         <v>143061</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>46</v>
@@ -2473,13 +2443,13 @@
         <v>452838</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,7 +2505,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2547,13 +2517,13 @@
         <v>9842</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2562,13 +2532,13 @@
         <v>1030</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -2580,10 +2550,10 @@
         <v>17</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2598,13 +2568,13 @@
         <v>170250</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H17" s="7">
         <v>73</v>
@@ -2613,10 +2583,10 @@
         <v>74406</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>46</v>
@@ -2631,10 +2601,10 @@
         <v>27</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,7 +2660,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2702,13 +2672,13 @@
         <v>3518</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2720,10 +2690,10 @@
         <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2732,13 +2702,13 @@
         <v>3518</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,13 +2723,13 @@
         <v>199416</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H20" s="7">
         <v>45</v>
@@ -2771,7 +2741,7 @@
         <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -2783,13 +2753,13 @@
         <v>245334</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2857,13 +2827,13 @@
         <v>51489</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -2872,13 +2842,13 @@
         <v>13239</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="M22" s="7">
         <v>62</v>
@@ -2887,13 +2857,13 @@
         <v>64728</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,13 +2878,13 @@
         <v>1829415</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H23" s="7">
         <v>862</v>
@@ -2923,13 +2893,13 @@
         <v>881343</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M23" s="7">
         <v>2658</v>
@@ -2938,13 +2908,13 @@
         <v>2710758</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,7 +2970,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3022,7 +2992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16172D1B-7A94-40E4-A941-D2271568F96A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C87E5F6-DD94-4125-9D97-B687C8C20A60}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3039,7 +3009,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3146,13 +3116,13 @@
         <v>30082</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -3161,13 +3131,13 @@
         <v>5057</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M4" s="7">
         <v>34</v>
@@ -3176,13 +3146,13 @@
         <v>35139</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3167,13 @@
         <v>251778</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H5" s="7">
         <v>174</v>
@@ -3212,13 +3182,13 @@
         <v>179460</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>424</v>
@@ -3227,13 +3197,13 @@
         <v>431238</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,13 +3271,13 @@
         <v>37324</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -3316,13 +3286,13 @@
         <v>8695</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -3331,13 +3301,13 @@
         <v>46019</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3322,13 @@
         <v>429612</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>195</v>
@@ -3367,13 +3337,13 @@
         <v>204740</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>614</v>
@@ -3382,13 +3352,13 @@
         <v>634351</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3426,13 @@
         <v>20484</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -3471,13 +3441,13 @@
         <v>7953</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -3486,13 +3456,13 @@
         <v>28437</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3477,13 @@
         <v>406575</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="H11" s="7">
         <v>217</v>
@@ -3522,13 +3492,13 @@
         <v>236409</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>606</v>
@@ -3537,13 +3507,13 @@
         <v>642985</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,13 +3581,13 @@
         <v>29316</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3629,10 +3599,10 @@
         <v>36</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -3641,13 +3611,13 @@
         <v>29316</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,13 +3632,13 @@
         <v>364792</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H14" s="7">
         <v>189</v>
@@ -3680,7 +3650,7 @@
         <v>46</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>26</v>
+        <v>189</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -3754,7 +3724,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3799,10 +3769,10 @@
         <v>198</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,13 +3787,13 @@
         <v>223589</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H17" s="7">
         <v>97</v>
@@ -3832,10 +3802,10 @@
         <v>110153</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>46</v>
@@ -3847,13 +3817,13 @@
         <v>333742</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>207</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3909,7 +3879,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3921,13 +3891,13 @@
         <v>12234</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3939,10 +3909,10 @@
         <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -3951,13 +3921,13 @@
         <v>12234</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,13 +3942,13 @@
         <v>226632</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H20" s="7">
         <v>73</v>
@@ -3990,7 +3960,7 @@
         <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -4002,13 +3972,13 @@
         <v>308483</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>220</v>
+        <v>48</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,13 +4046,13 @@
         <v>137642</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -4091,13 +4061,13 @@
         <v>22706</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M22" s="7">
         <v>147</v>
@@ -4106,13 +4076,13 @@
         <v>160348</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,13 +4097,13 @@
         <v>1902977</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H23" s="7">
         <v>945</v>
@@ -4142,13 +4112,13 @@
         <v>1028102</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M23" s="7">
         <v>2737</v>
@@ -4157,13 +4127,13 @@
         <v>2931080</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,7 +4189,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4241,7 +4211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4868C12F-1F54-4E8A-9779-4FE6BCCA6626}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D10FF06-3179-47E3-96EF-F323AF041686}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4258,7 +4228,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4365,13 +4335,13 @@
         <v>19091</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4380,13 +4350,13 @@
         <v>12140</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M4" s="7">
         <v>28</v>
@@ -4395,13 +4365,13 @@
         <v>31231</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,13 +4386,13 @@
         <v>236081</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H5" s="7">
         <v>164</v>
@@ -4431,13 +4401,13 @@
         <v>159456</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>191</v>
+        <v>249</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M5" s="7">
         <v>389</v>
@@ -4446,13 +4416,13 @@
         <v>395537</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,13 +4490,13 @@
         <v>25803</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4535,13 +4505,13 @@
         <v>8408</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>120</v>
+        <v>258</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>33</v>
@@ -4550,13 +4520,13 @@
         <v>34210</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,13 +4541,13 @@
         <v>340784</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H8" s="7">
         <v>221</v>
@@ -4586,13 +4556,13 @@
         <v>217186</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>130</v>
+        <v>268</v>
       </c>
       <c r="M8" s="7">
         <v>551</v>
@@ -4601,13 +4571,13 @@
         <v>557971</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,13 +4645,13 @@
         <v>13747</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>273</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>275</v>
+        <v>207</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4690,13 +4660,13 @@
         <v>2741</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -4705,13 +4675,13 @@
         <v>16488</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>280</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,13 +4696,13 @@
         <v>417607</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>283</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>245</v>
@@ -4741,13 +4711,13 @@
         <v>246359</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>643</v>
@@ -4756,13 +4726,13 @@
         <v>663966</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>289</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,13 +4800,13 @@
         <v>25627</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>17</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -4845,13 +4815,13 @@
         <v>8766</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>294</v>
+        <v>170</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -4860,13 +4830,13 @@
         <v>34394</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>193</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,13 +4851,13 @@
         <v>365035</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>27</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>234</v>
@@ -4896,13 +4866,13 @@
         <v>256444</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>178</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M14" s="7">
         <v>563</v>
@@ -4911,13 +4881,13 @@
         <v>621478</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>201</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,7 +4943,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4985,13 +4955,13 @@
         <v>16440</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>184</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5000,13 +4970,13 @@
         <v>4172</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -5015,13 +4985,13 @@
         <v>20612</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>156</v>
+        <v>306</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>54</v>
+        <v>307</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>195</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5042,7 +5012,7 @@
         <v>310</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>192</v>
       </c>
       <c r="H17" s="7">
         <v>110</v>
@@ -5051,13 +5021,13 @@
         <v>126459</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M17" s="7">
         <v>349</v>
@@ -5066,13 +5036,13 @@
         <v>395565</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>166</v>
+        <v>313</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>202</v>
+        <v>314</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>61</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,7 +5098,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5140,13 +5110,13 @@
         <v>4463</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>318</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5155,13 +5125,13 @@
         <v>1074</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>316</v>
+        <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -5170,13 +5140,13 @@
         <v>5536</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,13 +5161,13 @@
         <v>266451</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>48</v>
+        <v>323</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H20" s="7">
         <v>85</v>
@@ -5206,10 +5176,10 @@
         <v>103103</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>322</v>
+        <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>46</v>
@@ -5221,13 +5191,13 @@
         <v>369555</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,13 +5265,13 @@
         <v>105170</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -5310,13 +5280,13 @@
         <v>37300</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M22" s="7">
         <v>130</v>
@@ -5325,13 +5295,13 @@
         <v>142471</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5346,13 +5316,13 @@
         <v>1895066</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H23" s="7">
         <v>1059</v>
@@ -5361,13 +5331,13 @@
         <v>1109007</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M23" s="7">
         <v>2857</v>
@@ -5376,13 +5346,13 @@
         <v>3004073</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>339</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,7 +5408,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5460,7 +5430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB0AABB-E599-4324-927D-8D42FB78A551}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC5249C-E45E-43A0-8728-2317A19E374A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5477,7 +5447,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5584,13 +5554,13 @@
         <v>10520</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -5599,13 +5569,13 @@
         <v>6586</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -5614,13 +5584,13 @@
         <v>17107</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,13 +5605,13 @@
         <v>150696</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H5" s="7">
         <v>62</v>
@@ -5650,13 +5620,13 @@
         <v>106244</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M5" s="7">
         <v>127</v>
@@ -5665,13 +5635,13 @@
         <v>256938</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,13 +5709,13 @@
         <v>14076</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -5754,13 +5724,13 @@
         <v>6004</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>363</v>
+        <v>274</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -5769,13 +5739,13 @@
         <v>20080</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>73</v>
+        <v>367</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,13 +5760,13 @@
         <v>213315</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H8" s="7">
         <v>137</v>
@@ -5805,13 +5775,13 @@
         <v>145868</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>372</v>
+        <v>281</v>
       </c>
       <c r="M8" s="7">
         <v>280</v>
@@ -5820,13 +5790,13 @@
         <v>359183</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>80</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +5864,13 @@
         <v>18288</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -5909,13 +5879,13 @@
         <v>3711</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -5924,13 +5894,13 @@
         <v>21999</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>381</v>
+        <v>244</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>278</v>
+        <v>382</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,13 +5915,13 @@
         <v>270335</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H11" s="7">
         <v>224</v>
@@ -5960,10 +5930,10 @@
         <v>156486</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>388</v>
@@ -5975,13 +5945,13 @@
         <v>426820</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6049,13 +6019,13 @@
         <v>15972</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -6064,13 +6034,13 @@
         <v>4006</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>395</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -6079,13 +6049,13 @@
         <v>19978</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,13 +6070,13 @@
         <v>337717</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="H14" s="7">
         <v>316</v>
@@ -6115,13 +6085,13 @@
         <v>200330</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M14" s="7">
         <v>634</v>
@@ -6130,13 +6100,13 @@
         <v>538046</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6192,7 +6162,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6204,13 +6174,13 @@
         <v>26370</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -6219,13 +6189,13 @@
         <v>5089</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>410</v>
+        <v>321</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="M16" s="7">
         <v>36</v>
@@ -6234,13 +6204,13 @@
         <v>31459</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>414</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6255,13 +6225,13 @@
         <v>252057</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H17" s="7">
         <v>232</v>
@@ -6270,13 +6240,13 @@
         <v>139875</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>419</v>
+        <v>326</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="M17" s="7">
         <v>509</v>
@@ -6285,13 +6255,13 @@
         <v>391932</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>424</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6347,7 +6317,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6359,13 +6329,13 @@
         <v>13543</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>425</v>
+        <v>239</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>223</v>
+        <v>419</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -6374,13 +6344,13 @@
         <v>1835</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -6389,13 +6359,13 @@
         <v>15378</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>280</v>
+        <v>423</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>243</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6410,13 +6380,13 @@
         <v>294819</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>430</v>
+        <v>248</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>232</v>
+        <v>425</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="H20" s="7">
         <v>199</v>
@@ -6425,10 +6395,10 @@
         <v>220058</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>46</v>
@@ -6440,13 +6410,13 @@
         <v>514878</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>252</v>
+        <v>429</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>289</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6514,13 +6484,13 @@
         <v>98770</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>435</v>
+        <v>227</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -6529,13 +6499,13 @@
         <v>27231</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>439</v>
+        <v>316</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="M22" s="7">
         <v>134</v>
@@ -6544,13 +6514,13 @@
         <v>126001</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>441</v>
+        <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6562,16 +6532,16 @@
         <v>1487</v>
       </c>
       <c r="D23" s="7">
-        <v>1518938</v>
+        <v>1518937</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>443</v>
+        <v>235</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="H23" s="7">
         <v>1170</v>
@@ -6580,13 +6550,13 @@
         <v>968860</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>448</v>
+        <v>322</v>
       </c>
       <c r="M23" s="7">
         <v>2657</v>
@@ -6595,13 +6565,13 @@
         <v>2487797</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>449</v>
+        <v>162</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6613,7 +6583,7 @@
         <v>1587</v>
       </c>
       <c r="D24" s="7">
-        <v>1617708</v>
+        <v>1617707</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -6657,7 +6627,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P32-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE16E817-5828-4109-997E-BB71E24E0968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1089A0BB-5602-4E1F-A832-0B0E8708F5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{74647D87-767D-482A-89FD-B04994A63A06}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2D54B58B-01F7-47FA-A5AD-64990EBF2977}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="429">
   <si>
     <t>Población según si han pensado que deberían beber menos en 2007 (Tasa respuesta: 41,78%)</t>
   </si>
@@ -77,1291 +77,1255 @@
     <t>5,18%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2012 (Tasa respuesta: 44,32%)</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2016 (Tasa respuesta: 45,47%)</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
     <t>1,03%</t>
   </si>
   <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
     <t>6,38%</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
   </si>
   <si>
     <t>93,62%</t>
   </si>
   <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2023 (Tasa respuesta: 31,92%)</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
   </si>
   <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
   </si>
   <si>
     <t>95,48%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2012 (Tasa respuesta: 44,32%)</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
   </si>
   <si>
     <t>95,18%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2015 (Tasa respuesta: 45,47%)</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
+    <t>94,0%</t>
   </si>
   <si>
     <t>96,11%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2023 (Tasa respuesta: 31,92%)</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
   </si>
 </sst>
 </file>
@@ -1773,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D037A60A-CF1C-420A-8BF6-6C1F4FF89227}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328892EC-925D-4DDD-8B5A-C78D96C49703}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2377,13 +2341,13 @@
         <v>2142</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2392,13 +2356,13 @@
         <v>5859</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2413,13 +2377,13 @@
         <v>309776</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>137</v>
@@ -2428,10 +2392,10 @@
         <v>143061</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>46</v>
@@ -2443,13 +2407,13 @@
         <v>452838</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,7 +2469,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2517,13 +2481,13 @@
         <v>9842</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2532,13 +2496,13 @@
         <v>1030</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -2550,10 +2514,10 @@
         <v>17</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,13 +2532,13 @@
         <v>170250</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H17" s="7">
         <v>73</v>
@@ -2583,10 +2547,10 @@
         <v>74406</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>46</v>
@@ -2601,10 +2565,10 @@
         <v>27</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,7 +2624,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2672,13 +2636,13 @@
         <v>3518</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2690,10 +2654,10 @@
         <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2702,13 +2666,13 @@
         <v>3518</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,13 +2687,13 @@
         <v>199416</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H20" s="7">
         <v>45</v>
@@ -2741,7 +2705,7 @@
         <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -2753,13 +2717,13 @@
         <v>245334</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,13 +2791,13 @@
         <v>51489</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -2842,13 +2806,13 @@
         <v>13239</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="M22" s="7">
         <v>62</v>
@@ -2857,13 +2821,13 @@
         <v>64728</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,13 +2842,13 @@
         <v>1829415</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H23" s="7">
         <v>862</v>
@@ -2893,13 +2857,13 @@
         <v>881343</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M23" s="7">
         <v>2658</v>
@@ -2908,13 +2872,13 @@
         <v>2710758</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,7 +2934,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2992,7 +2956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C87E5F6-DD94-4125-9D97-B687C8C20A60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8568B629-689A-4781-9250-225ECB20B6D1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3009,7 +2973,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3116,13 +3080,13 @@
         <v>30082</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -3131,13 +3095,13 @@
         <v>5057</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>34</v>
@@ -3146,13 +3110,13 @@
         <v>35139</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,13 +3131,13 @@
         <v>251778</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H5" s="7">
         <v>174</v>
@@ -3182,13 +3146,13 @@
         <v>179460</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>424</v>
@@ -3197,13 +3161,13 @@
         <v>431238</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,13 +3235,13 @@
         <v>37324</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -3286,13 +3250,13 @@
         <v>8695</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -3301,13 +3265,13 @@
         <v>46019</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3286,13 @@
         <v>429612</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>195</v>
@@ -3337,13 +3301,13 @@
         <v>204740</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>614</v>
@@ -3352,13 +3316,13 @@
         <v>634351</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3390,13 @@
         <v>20484</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -3441,13 +3405,13 @@
         <v>7953</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>35</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -3456,13 +3420,13 @@
         <v>28437</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,13 +3441,13 @@
         <v>406575</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>217</v>
@@ -3492,13 +3456,13 @@
         <v>236409</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="M11" s="7">
         <v>606</v>
@@ -3507,13 +3471,13 @@
         <v>642985</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,13 +3545,13 @@
         <v>29316</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3599,10 +3563,10 @@
         <v>36</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -3611,13 +3575,13 @@
         <v>29316</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,13 +3596,13 @@
         <v>364792</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>189</v>
@@ -3650,7 +3614,7 @@
         <v>46</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -3662,13 +3626,13 @@
         <v>580280</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,7 +3688,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3736,13 +3700,13 @@
         <v>8202</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3751,13 +3715,13 @@
         <v>1002</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -3766,13 +3730,13 @@
         <v>9204</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3751,13 @@
         <v>223589</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H17" s="7">
         <v>97</v>
@@ -3802,10 +3766,10 @@
         <v>110153</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>46</v>
@@ -3817,13 +3781,13 @@
         <v>333742</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>205</v>
+        <v>29</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,7 +3843,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3891,13 +3855,13 @@
         <v>12234</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3909,10 +3873,10 @@
         <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -3921,13 +3885,13 @@
         <v>12234</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3906,13 @@
         <v>226632</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H20" s="7">
         <v>73</v>
@@ -3960,7 +3924,7 @@
         <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -3972,13 +3936,13 @@
         <v>308483</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>48</v>
+        <v>212</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4010,13 @@
         <v>137642</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -4061,13 +4025,13 @@
         <v>22706</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M22" s="7">
         <v>147</v>
@@ -4076,13 +4040,13 @@
         <v>160348</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4061,13 @@
         <v>1902977</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H23" s="7">
         <v>945</v>
@@ -4112,13 +4076,13 @@
         <v>1028102</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M23" s="7">
         <v>2737</v>
@@ -4127,13 +4091,13 @@
         <v>2931080</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,7 +4153,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4211,7 +4175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D10FF06-3179-47E3-96EF-F323AF041686}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A3DFAE-51E5-40DF-8313-AA623C9C0D97}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4228,7 +4192,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4335,13 +4299,13 @@
         <v>19091</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4350,13 +4314,13 @@
         <v>12140</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>28</v>
@@ -4365,13 +4329,13 @@
         <v>31231</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4386,13 +4350,13 @@
         <v>236081</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H5" s="7">
         <v>164</v>
@@ -4401,13 +4365,13 @@
         <v>159456</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M5" s="7">
         <v>389</v>
@@ -4416,13 +4380,13 @@
         <v>395537</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,13 +4454,13 @@
         <v>25803</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4505,13 +4469,13 @@
         <v>8408</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>33</v>
@@ -4520,13 +4484,13 @@
         <v>34210</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,13 +4505,13 @@
         <v>340784</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H8" s="7">
         <v>221</v>
@@ -4556,13 +4520,13 @@
         <v>217186</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M8" s="7">
         <v>551</v>
@@ -4571,13 +4535,13 @@
         <v>557971</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,13 +4609,13 @@
         <v>13747</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>273</v>
+        <v>147</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4660,13 +4624,13 @@
         <v>2741</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>276</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -4675,13 +4639,13 @@
         <v>16488</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>39</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,13 +4660,13 @@
         <v>417607</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>157</v>
       </c>
       <c r="H11" s="7">
         <v>245</v>
@@ -4711,13 +4675,13 @@
         <v>246359</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="M11" s="7">
         <v>643</v>
@@ -4726,13 +4690,13 @@
         <v>663966</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>49</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,13 +4764,13 @@
         <v>25627</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -4815,13 +4779,13 @@
         <v>8766</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>170</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -4830,13 +4794,13 @@
         <v>34394</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>111</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,13 +4815,13 @@
         <v>365035</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>25</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>234</v>
@@ -4866,13 +4830,13 @@
         <v>256444</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>178</v>
+        <v>291</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M14" s="7">
         <v>563</v>
@@ -4881,13 +4845,13 @@
         <v>621478</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>213</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,7 +4907,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4955,13 +4919,13 @@
         <v>16440</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>184</v>
+        <v>295</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4970,13 +4934,13 @@
         <v>4172</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -4985,13 +4949,13 @@
         <v>20612</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,13 +4970,13 @@
         <v>269107</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>192</v>
+        <v>304</v>
       </c>
       <c r="H17" s="7">
         <v>110</v>
@@ -5021,13 +4985,13 @@
         <v>126459</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="M17" s="7">
         <v>349</v>
@@ -5036,13 +5000,13 @@
         <v>395565</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,7 +5062,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5110,13 +5074,13 @@
         <v>4463</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>316</v>
+        <v>33</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5125,13 +5089,13 @@
         <v>1074</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>15</v>
+        <v>312</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>319</v>
+        <v>193</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -5140,13 +5104,13 @@
         <v>5536</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>321</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5161,13 +5125,13 @@
         <v>266451</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>322</v>
+        <v>43</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="H20" s="7">
         <v>85</v>
@@ -5176,10 +5140,10 @@
         <v>103103</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>26</v>
+        <v>316</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>325</v>
+        <v>199</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>46</v>
@@ -5191,13 +5155,13 @@
         <v>369555</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>326</v>
+        <v>195</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5229,13 @@
         <v>105170</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>328</v>
+        <v>193</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -5280,13 +5244,13 @@
         <v>37300</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="M22" s="7">
         <v>130</v>
@@ -5295,13 +5259,13 @@
         <v>142471</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>333</v>
+        <v>34</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,13 +5280,13 @@
         <v>1895066</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>335</v>
+        <v>199</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="H23" s="7">
         <v>1059</v>
@@ -5331,13 +5295,13 @@
         <v>1109007</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="M23" s="7">
         <v>2857</v>
@@ -5346,13 +5310,13 @@
         <v>3004073</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>340</v>
+        <v>42</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,7 +5372,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -5430,7 +5394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC5249C-E45E-43A0-8728-2317A19E374A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7D6D10-58E0-4261-8FFD-05316589D148}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5447,7 +5411,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5554,13 +5518,13 @@
         <v>10520</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -5569,13 +5533,13 @@
         <v>6586</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -5584,13 +5548,13 @@
         <v>17107</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5605,13 +5569,13 @@
         <v>150696</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="H5" s="7">
         <v>62</v>
@@ -5620,13 +5584,13 @@
         <v>106244</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="M5" s="7">
         <v>127</v>
@@ -5635,13 +5599,13 @@
         <v>256938</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,13 +5673,13 @@
         <v>14076</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -5724,13 +5688,13 @@
         <v>6004</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -5739,13 +5703,13 @@
         <v>20080</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,13 +5724,13 @@
         <v>213315</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="H8" s="7">
         <v>137</v>
@@ -5775,13 +5739,13 @@
         <v>145868</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M8" s="7">
         <v>280</v>
@@ -5790,13 +5754,13 @@
         <v>359183</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,13 +5828,13 @@
         <v>18288</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>378</v>
+        <v>68</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -5879,13 +5843,13 @@
         <v>3711</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>381</v>
+        <v>113</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -5894,13 +5858,13 @@
         <v>21999</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>366</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,13 +5879,13 @@
         <v>270335</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>386</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>224</v>
@@ -5930,13 +5894,13 @@
         <v>156486</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>388</v>
+        <v>122</v>
       </c>
       <c r="M11" s="7">
         <v>475</v>
@@ -5945,13 +5909,13 @@
         <v>426820</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>253</v>
+        <v>372</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6019,13 +5983,13 @@
         <v>15972</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>375</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -6034,13 +5998,13 @@
         <v>4006</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -6049,13 +6013,13 @@
         <v>19978</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>395</v>
+        <v>111</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>396</v>
+        <v>57</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6070,13 +6034,13 @@
         <v>337717</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>45</v>
+        <v>381</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="H14" s="7">
         <v>316</v>
@@ -6085,13 +6049,13 @@
         <v>200330</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="M14" s="7">
         <v>634</v>
@@ -6100,13 +6064,13 @@
         <v>538046</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>402</v>
+        <v>118</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>404</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6162,7 +6126,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6174,13 +6138,13 @@
         <v>26370</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -6189,13 +6153,13 @@
         <v>5089</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>321</v>
+        <v>390</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="M16" s="7">
         <v>36</v>
@@ -6204,13 +6168,13 @@
         <v>31459</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6225,13 +6189,13 @@
         <v>252057</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="H17" s="7">
         <v>232</v>
@@ -6240,13 +6204,13 @@
         <v>139875</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>326</v>
+        <v>398</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="M17" s="7">
         <v>509</v>
@@ -6255,10 +6219,10 @@
         <v>391932</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>21</v>
@@ -6317,7 +6281,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6329,13 +6293,13 @@
         <v>13543</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>239</v>
+        <v>403</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>419</v>
+        <v>83</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -6344,13 +6308,13 @@
         <v>1835</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -6359,13 +6323,13 @@
         <v>15378</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6380,13 +6344,13 @@
         <v>294819</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>248</v>
+        <v>409</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>425</v>
+        <v>90</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="H20" s="7">
         <v>199</v>
@@ -6395,10 +6359,10 @@
         <v>220058</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>46</v>
@@ -6410,13 +6374,13 @@
         <v>514878</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6484,13 +6448,13 @@
         <v>98770</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>227</v>
+        <v>415</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>432</v>
+        <v>207</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -6499,13 +6463,13 @@
         <v>27231</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>316</v>
+        <v>33</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="M22" s="7">
         <v>134</v>
@@ -6514,13 +6478,13 @@
         <v>126001</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>419</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>420</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6535,13 +6499,13 @@
         <v>1518937</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>235</v>
+        <v>422</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>436</v>
+        <v>213</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="H23" s="7">
         <v>1170</v>
@@ -6550,13 +6514,13 @@
         <v>968860</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>322</v>
+        <v>43</v>
       </c>
       <c r="M23" s="7">
         <v>2657</v>
@@ -6565,13 +6529,13 @@
         <v>2487797</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>162</v>
+        <v>426</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>285</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6627,7 +6591,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P32-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1089A0BB-5602-4E1F-A832-0B0E8708F5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FA19ACD-CF1D-44FA-BFBA-783270672D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2D54B58B-01F7-47FA-A5AD-64990EBF2977}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3B8D79FD-E948-4764-94E5-69042BFCAF43}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="451">
   <si>
     <t>Población según si han pensado que deberían beber menos en 2007 (Tasa respuesta: 41,78%)</t>
   </si>
@@ -71,1261 +71,1327 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>5,18%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>1,05%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2012 (Tasa respuesta: 44,32%)</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2016 (Tasa respuesta: 45,47%)</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
   </si>
   <si>
     <t>6,56%</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
   </si>
   <si>
     <t>93,44%</t>
   </si>
   <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,99%</t>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
   </si>
   <si>
     <t>1,65%</t>
   </si>
   <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
     <t>4,53%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
   </si>
   <si>
     <t>95,47%</t>
   </si>
   <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2023 (Tasa respuesta: 31,92%)</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
   </si>
   <si>
     <t>3,58%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
   </si>
   <si>
     <t>96,42%</t>
   </si>
   <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2012 (Tasa respuesta: 44,32%)</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2016 (Tasa respuesta: 45,47%)</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2023 (Tasa respuesta: 31,92%)</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
   </si>
   <si>
     <t>9,47%</t>
   </si>
   <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
   </si>
   <si>
     <t>3,51%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
   </si>
   <si>
     <t>7,43%</t>
   </si>
   <si>
-    <t>10,0%</t>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
   </si>
   <si>
     <t>90,53%</t>
   </si>
   <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
   </si>
   <si>
     <t>96,49%</t>
   </si>
   <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
   </si>
   <si>
     <t>92,57%</t>
   </si>
   <si>
-    <t>90,0%</t>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
   </si>
   <si>
     <t>4,39%</t>
   </si>
   <si>
+    <t>2,77%</t>
+  </si>
+  <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>2,38%</t>
+    <t>2,37%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
     <t>95,61%</t>
   </si>
   <si>
+    <t>97,23%</t>
+  </si>
+  <si>
     <t>99,17%</t>
   </si>
   <si>
-    <t>97,62%</t>
+    <t>97,63%</t>
   </si>
   <si>
     <t>97,1%</t>
   </si>
   <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
     <t>6,11%</t>
   </si>
   <si>
-    <t>4,87%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>4,06%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
+    <t>5,92%</t>
   </si>
   <si>
     <t>93,89%</t>
   </si>
   <si>
-    <t>95,13%</t>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
   </si>
   <si>
     <t>97,27%</t>
   </si>
   <si>
-    <t>95,94%</t>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
   </si>
   <si>
     <t>95,18%</t>
   </si>
   <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
+    <t>94,08%</t>
   </si>
 </sst>
 </file>
@@ -1737,7 +1803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328892EC-925D-4DDD-8B5A-C78D96C49703}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D138307-16B6-4D68-A4B6-379C7108560E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2341,13 +2407,13 @@
         <v>2142</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2356,13 +2422,13 @@
         <v>5859</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,13 +2443,13 @@
         <v>309776</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>137</v>
@@ -2392,10 +2458,10 @@
         <v>143061</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>46</v>
@@ -2407,13 +2473,13 @@
         <v>452838</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,7 +2535,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2481,13 +2547,13 @@
         <v>9842</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2496,13 +2562,13 @@
         <v>1030</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -2514,10 +2580,10 @@
         <v>17</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2598,13 @@
         <v>170250</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
         <v>73</v>
@@ -2547,10 +2613,10 @@
         <v>74406</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>46</v>
@@ -2565,10 +2631,10 @@
         <v>27</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,7 +2690,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2636,13 +2702,13 @@
         <v>3518</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2654,10 +2720,10 @@
         <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2666,13 +2732,13 @@
         <v>3518</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2753,13 @@
         <v>199416</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H20" s="7">
         <v>45</v>
@@ -2705,7 +2771,7 @@
         <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -2717,13 +2783,13 @@
         <v>245334</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,13 +2857,13 @@
         <v>51489</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -2806,13 +2872,13 @@
         <v>13239</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M22" s="7">
         <v>62</v>
@@ -2821,13 +2887,13 @@
         <v>64728</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,13 +2908,13 @@
         <v>1829415</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H23" s="7">
         <v>862</v>
@@ -2857,13 +2923,13 @@
         <v>881343</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M23" s="7">
         <v>2658</v>
@@ -2872,13 +2938,13 @@
         <v>2710758</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,7 +3000,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2956,7 +3022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8568B629-689A-4781-9250-225ECB20B6D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1262AED2-0350-4DC9-B5D2-A378FCC7FCD1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2973,7 +3039,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3080,13 +3146,13 @@
         <v>30082</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -3095,13 +3161,13 @@
         <v>5057</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="M4" s="7">
         <v>34</v>
@@ -3110,13 +3176,13 @@
         <v>35139</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,13 +3197,13 @@
         <v>251778</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H5" s="7">
         <v>174</v>
@@ -3146,13 +3212,13 @@
         <v>179460</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M5" s="7">
         <v>424</v>
@@ -3161,13 +3227,13 @@
         <v>431238</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,13 +3301,13 @@
         <v>37324</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -3250,13 +3316,13 @@
         <v>8695</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -3265,13 +3331,13 @@
         <v>46019</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3352,13 @@
         <v>429612</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="H8" s="7">
         <v>195</v>
@@ -3301,13 +3367,13 @@
         <v>204740</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="M8" s="7">
         <v>614</v>
@@ -3316,13 +3382,13 @@
         <v>634351</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,13 +3456,13 @@
         <v>20484</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -3405,13 +3471,13 @@
         <v>7953</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -3420,13 +3486,13 @@
         <v>28437</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,13 +3507,13 @@
         <v>406575</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="H11" s="7">
         <v>217</v>
@@ -3456,13 +3522,13 @@
         <v>236409</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>606</v>
@@ -3471,13 +3537,13 @@
         <v>642985</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,13 +3611,13 @@
         <v>29316</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3563,10 +3629,10 @@
         <v>36</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -3575,13 +3641,13 @@
         <v>29316</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,13 +3662,13 @@
         <v>364792</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="H14" s="7">
         <v>189</v>
@@ -3614,7 +3680,7 @@
         <v>46</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>26</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -3626,13 +3692,13 @@
         <v>580280</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,7 +3754,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3700,13 +3766,13 @@
         <v>8202</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3715,13 +3781,13 @@
         <v>1002</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -3730,13 +3796,13 @@
         <v>9204</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>66</v>
+        <v>199</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3817,13 @@
         <v>223589</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H17" s="7">
         <v>97</v>
@@ -3766,10 +3832,10 @@
         <v>110153</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>46</v>
@@ -3781,13 +3847,13 @@
         <v>333742</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>29</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>72</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,7 +3909,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3855,13 +3921,13 @@
         <v>12234</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3873,10 +3939,10 @@
         <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -3885,13 +3951,13 @@
         <v>12234</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,13 +3972,13 @@
         <v>226632</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="H20" s="7">
         <v>73</v>
@@ -3924,7 +3990,7 @@
         <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -3936,13 +4002,13 @@
         <v>308483</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,13 +4076,13 @@
         <v>137642</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -4025,13 +4091,13 @@
         <v>22706</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="M22" s="7">
         <v>147</v>
@@ -4040,13 +4106,13 @@
         <v>160348</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4127,13 @@
         <v>1902977</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="H23" s="7">
         <v>945</v>
@@ -4076,13 +4142,13 @@
         <v>1028102</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="M23" s="7">
         <v>2737</v>
@@ -4091,13 +4157,13 @@
         <v>2931080</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,7 +4219,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4175,7 +4241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A3DFAE-51E5-40DF-8313-AA623C9C0D97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B865A21A-85FE-46E7-879A-4991F7BD6AB8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4192,7 +4258,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4299,13 +4365,13 @@
         <v>19091</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4314,13 +4380,13 @@
         <v>12140</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="M4" s="7">
         <v>28</v>
@@ -4329,13 +4395,13 @@
         <v>31231</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,13 +4416,13 @@
         <v>236081</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="H5" s="7">
         <v>164</v>
@@ -4365,13 +4431,13 @@
         <v>159456</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="M5" s="7">
         <v>389</v>
@@ -4380,13 +4446,13 @@
         <v>395537</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,13 +4520,13 @@
         <v>25803</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4469,13 +4535,13 @@
         <v>8408</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>120</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M7" s="7">
         <v>33</v>
@@ -4484,13 +4550,13 @@
         <v>34210</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,13 +4571,13 @@
         <v>340784</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H8" s="7">
         <v>221</v>
@@ -4520,13 +4586,13 @@
         <v>217186</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>130</v>
       </c>
       <c r="M8" s="7">
         <v>551</v>
@@ -4535,13 +4601,13 @@
         <v>557971</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,13 +4675,13 @@
         <v>13747</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>275</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4624,13 +4690,13 @@
         <v>2741</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>278</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -4639,13 +4705,13 @@
         <v>16488</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4660,13 +4726,13 @@
         <v>417607</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>283</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="H11" s="7">
         <v>245</v>
@@ -4675,13 +4741,13 @@
         <v>246359</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M11" s="7">
         <v>643</v>
@@ -4690,13 +4756,13 @@
         <v>663966</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,13 +4830,13 @@
         <v>25627</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>17</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -4779,13 +4845,13 @@
         <v>8766</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -4794,13 +4860,13 @@
         <v>34394</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>207</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,13 +4881,13 @@
         <v>365035</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>27</v>
       </c>
       <c r="H14" s="7">
         <v>234</v>
@@ -4830,13 +4896,13 @@
         <v>256444</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>563</v>
@@ -4845,13 +4911,13 @@
         <v>621478</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>213</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>118</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,7 +4973,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4919,13 +4985,13 @@
         <v>16440</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4934,13 +5000,13 @@
         <v>4172</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -4949,13 +5015,13 @@
         <v>20612</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>299</v>
+        <v>156</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>300</v>
+        <v>54</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>301</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,13 +5036,13 @@
         <v>269107</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="H17" s="7">
         <v>110</v>
@@ -4985,13 +5051,13 @@
         <v>126459</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="M17" s="7">
         <v>349</v>
@@ -5000,13 +5066,13 @@
         <v>395565</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>307</v>
+        <v>166</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>308</v>
+        <v>202</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>309</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,7 +5128,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5074,13 +5140,13 @@
         <v>4463</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>33</v>
+        <v>314</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>311</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5089,13 +5155,13 @@
         <v>1074</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>193</v>
+        <v>317</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -5104,13 +5170,13 @@
         <v>5536</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>189</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,13 +5191,13 @@
         <v>266451</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>43</v>
+        <v>320</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>314</v>
+        <v>48</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="H20" s="7">
         <v>85</v>
@@ -5140,10 +5206,10 @@
         <v>103103</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>199</v>
+        <v>323</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>46</v>
@@ -5155,13 +5221,13 @@
         <v>369555</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>195</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5295,13 @@
         <v>105170</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>193</v>
+        <v>326</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -5244,13 +5310,13 @@
         <v>37300</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="M22" s="7">
         <v>130</v>
@@ -5259,13 +5325,13 @@
         <v>142471</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>34</v>
+        <v>330</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>238</v>
+        <v>331</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,13 +5346,13 @@
         <v>1895066</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>199</v>
+        <v>333</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="H23" s="7">
         <v>1059</v>
@@ -5295,13 +5361,13 @@
         <v>1109007</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="M23" s="7">
         <v>2857</v>
@@ -5310,13 +5376,13 @@
         <v>3004073</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>42</v>
+        <v>336</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>248</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,7 +5438,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -5394,7 +5460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7D6D10-58E0-4261-8FFD-05316589D148}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2FB91F-48A2-4B2D-B85F-1B3BBA17597E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5411,7 +5477,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5518,13 +5584,13 @@
         <v>10520</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -5533,13 +5599,13 @@
         <v>6586</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -5548,13 +5614,13 @@
         <v>17107</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5569,13 +5635,13 @@
         <v>150696</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="H5" s="7">
         <v>62</v>
@@ -5584,13 +5650,13 @@
         <v>106244</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="M5" s="7">
         <v>127</v>
@@ -5599,13 +5665,13 @@
         <v>256938</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5673,13 +5739,13 @@
         <v>14076</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -5688,13 +5754,13 @@
         <v>6004</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>271</v>
+        <v>363</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -5703,13 +5769,13 @@
         <v>20080</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>353</v>
+        <v>73</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,13 +5790,13 @@
         <v>213315</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="H8" s="7">
         <v>137</v>
@@ -5739,13 +5805,13 @@
         <v>145868</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>277</v>
+        <v>372</v>
       </c>
       <c r="M8" s="7">
         <v>280</v>
@@ -5754,13 +5820,13 @@
         <v>359183</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>362</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5828,13 +5894,13 @@
         <v>18288</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>68</v>
+        <v>376</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -5843,13 +5909,13 @@
         <v>3711</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>113</v>
+        <v>379</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -5858,13 +5924,13 @@
         <v>21999</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>367</v>
+        <v>278</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5879,13 +5945,13 @@
         <v>270335</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>73</v>
+        <v>385</v>
       </c>
       <c r="H11" s="7">
         <v>224</v>
@@ -5894,13 +5960,13 @@
         <v>156486</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>360</v>
+        <v>387</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>122</v>
+        <v>388</v>
       </c>
       <c r="M11" s="7">
         <v>475</v>
@@ -5909,13 +5975,13 @@
         <v>426820</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>374</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5983,13 +6049,13 @@
         <v>15972</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -5998,13 +6064,13 @@
         <v>4006</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -6013,13 +6079,13 @@
         <v>19978</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>111</v>
+        <v>396</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>57</v>
+        <v>397</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6034,13 +6100,13 @@
         <v>337717</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="H14" s="7">
         <v>316</v>
@@ -6049,13 +6115,13 @@
         <v>200330</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="M14" s="7">
         <v>634</v>
@@ -6064,13 +6130,13 @@
         <v>538046</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>118</v>
+        <v>404</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>63</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,7 +6192,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6138,13 +6204,13 @@
         <v>26370</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -6153,13 +6219,13 @@
         <v>5089</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="M16" s="7">
         <v>36</v>
@@ -6168,13 +6234,13 @@
         <v>31459</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>414</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6189,13 +6255,13 @@
         <v>252057</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="H17" s="7">
         <v>232</v>
@@ -6204,13 +6270,13 @@
         <v>139875</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
       <c r="M17" s="7">
         <v>509</v>
@@ -6219,13 +6285,13 @@
         <v>391932</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>21</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6281,7 +6347,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6293,13 +6359,13 @@
         <v>13543</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>83</v>
+        <v>223</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -6308,13 +6374,13 @@
         <v>1835</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -6323,13 +6389,13 @@
         <v>15378</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>407</v>
+        <v>280</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>408</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6344,13 +6410,13 @@
         <v>294819</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>90</v>
+        <v>232</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="H20" s="7">
         <v>199</v>
@@ -6359,10 +6425,10 @@
         <v>220058</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>46</v>
@@ -6374,13 +6440,13 @@
         <v>514878</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>413</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>414</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6448,13 +6514,13 @@
         <v>98770</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>207</v>
+        <v>437</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -6463,13 +6529,13 @@
         <v>27231</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>33</v>
+        <v>439</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="M22" s="7">
         <v>134</v>
@@ -6478,13 +6544,13 @@
         <v>126001</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>420</v>
+        <v>281</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6496,16 +6562,16 @@
         <v>1487</v>
       </c>
       <c r="D23" s="7">
-        <v>1518937</v>
+        <v>1518938</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>213</v>
+        <v>444</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="H23" s="7">
         <v>1170</v>
@@ -6514,13 +6580,13 @@
         <v>968860</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>43</v>
+        <v>448</v>
       </c>
       <c r="M23" s="7">
         <v>2657</v>
@@ -6529,13 +6595,13 @@
         <v>2487797</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>428</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6547,7 +6613,7 @@
         <v>1587</v>
       </c>
       <c r="D24" s="7">
-        <v>1617707</v>
+        <v>1617708</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -6591,7 +6657,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P32-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FA19ACD-CF1D-44FA-BFBA-783270672D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB388FD4-5916-4A23-BFD8-DD0BB98FDAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3B8D79FD-E948-4764-94E5-69042BFCAF43}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0DD603BB-6B71-4F30-B37C-11B94C425CC0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="472">
   <si>
     <t>Población según si han pensado que deberían beber menos en 2007 (Tasa respuesta: 41,78%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>2,99%</t>
@@ -191,7 +191,7 @@
     <t>98,56%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,44%</t>
@@ -236,7 +236,7 @@
     <t>99,54%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>1,19%</t>
@@ -287,7 +287,7 @@
     <t>99,51%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>5,47%</t>
@@ -332,52 +332,67 @@
     <t>97,86%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>2,74%</t>
@@ -599,9 +614,6 @@
     <t>3,08%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
     <t>92,56%</t>
   </si>
   <si>
@@ -614,9 +626,6 @@
     <t>95,19%</t>
   </si>
   <si>
-    <t>92,93%</t>
-  </si>
-  <si>
     <t>96,92%</t>
   </si>
   <si>
@@ -668,730 +677,784 @@
     <t>98,83%</t>
   </si>
   <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2016 (Tasa respuesta: 45,47%)</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2023 (Tasa respuesta: 31,92%)</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
   </si>
   <si>
     <t>3,81%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
   </si>
   <si>
     <t>96,19%</t>
   </si>
   <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2016 (Tasa respuesta: 45,47%)</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2023 (Tasa respuesta: 31,92%)</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
   </si>
   <si>
     <t>98,31%</t>
   </si>
   <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
   </si>
   <si>
     <t>6,19%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
   </si>
   <si>
     <t>93,81%</t>
   </si>
   <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
   </si>
 </sst>
 </file>
@@ -1803,8 +1866,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D138307-16B6-4D68-A4B6-379C7108560E}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DFDD13-0965-419E-AE59-22A1FE8642F1}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2696,19 +2759,19 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>3518</v>
+        <v>2511</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2720,25 +2783,25 @@
         <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>2</v>
+      </c>
+      <c r="N19" s="7">
+        <v>2511</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="M19" s="7">
-        <v>3</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3518</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,49 +2810,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>204</v>
+        <v>131</v>
       </c>
       <c r="D20" s="7">
-        <v>199416</v>
+        <v>127288</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="H20" s="7">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I20" s="7">
-        <v>45918</v>
+        <v>29393</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M20" s="7">
-        <v>249</v>
+        <v>162</v>
       </c>
       <c r="N20" s="7">
-        <v>245334</v>
+        <v>156680</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,10 +2861,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="D21" s="7">
-        <v>202934</v>
+        <v>129799</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2813,10 +2876,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I21" s="7">
-        <v>45918</v>
+        <v>29393</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2828,10 +2891,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>252</v>
+        <v>164</v>
       </c>
       <c r="N21" s="7">
-        <v>248852</v>
+        <v>159191</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2845,55 +2908,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>51489</v>
+        <v>1007</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1007</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H22" s="7">
-        <v>12</v>
-      </c>
-      <c r="I22" s="7">
-        <v>13239</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M22" s="7">
-        <v>62</v>
-      </c>
-      <c r="N22" s="7">
-        <v>64728</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,49 +2965,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1796</v>
+        <v>73</v>
       </c>
       <c r="D23" s="7">
-        <v>1829415</v>
+        <v>72128</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
-        <v>862</v>
+        <v>14</v>
       </c>
       <c r="I23" s="7">
-        <v>881343</v>
+        <v>16525</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="M23" s="7">
-        <v>2658</v>
+        <v>87</v>
       </c>
       <c r="N23" s="7">
-        <v>2710758</v>
+        <v>88653</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>130</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,63 +3016,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>74</v>
+      </c>
+      <c r="D24" s="7">
+        <v>73135</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>14</v>
+      </c>
+      <c r="I24" s="7">
+        <v>16525</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>88</v>
+      </c>
+      <c r="N24" s="7">
+        <v>89660</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>50</v>
+      </c>
+      <c r="D25" s="7">
+        <v>51489</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="7">
+        <v>12</v>
+      </c>
+      <c r="I25" s="7">
+        <v>13239</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M25" s="7">
+        <v>62</v>
+      </c>
+      <c r="N25" s="7">
+        <v>64728</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1796</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1829415</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26" s="7">
+        <v>862</v>
+      </c>
+      <c r="I26" s="7">
+        <v>881342</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2658</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2710758</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1846</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>1880904</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>874</v>
       </c>
-      <c r="I24" s="7">
-        <v>894582</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>894581</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>2720</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>2775486</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>131</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3022,8 +3241,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1262AED2-0350-4DC9-B5D2-A378FCC7FCD1}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9258A0BC-7E4C-4691-9960-587508B61DA0}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3039,7 +3258,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3146,13 +3365,13 @@
         <v>30082</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -3161,13 +3380,13 @@
         <v>5057</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M4" s="7">
         <v>34</v>
@@ -3176,13 +3395,13 @@
         <v>35139</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3416,13 @@
         <v>251778</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H5" s="7">
         <v>174</v>
@@ -3212,13 +3431,13 @@
         <v>179460</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="M5" s="7">
         <v>424</v>
@@ -3227,13 +3446,13 @@
         <v>431238</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,13 +3520,13 @@
         <v>37324</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -3316,13 +3535,13 @@
         <v>8695</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -3331,13 +3550,13 @@
         <v>46019</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3571,13 @@
         <v>429612</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H8" s="7">
         <v>195</v>
@@ -3367,13 +3586,13 @@
         <v>204740</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M8" s="7">
         <v>614</v>
@@ -3382,13 +3601,13 @@
         <v>634351</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3675,13 @@
         <v>20484</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -3471,10 +3690,10 @@
         <v>7953</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>16</v>
@@ -3486,13 +3705,13 @@
         <v>28437</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3726,13 @@
         <v>406575</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
         <v>217</v>
@@ -3522,13 +3741,13 @@
         <v>236409</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="M11" s="7">
         <v>606</v>
@@ -3537,13 +3756,13 @@
         <v>642985</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,13 +3830,13 @@
         <v>29316</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3629,7 +3848,7 @@
         <v>36</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
@@ -3641,13 +3860,13 @@
         <v>29316</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,13 +3881,13 @@
         <v>364792</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H14" s="7">
         <v>189</v>
@@ -3692,13 +3911,13 @@
         <v>580280</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,13 +3985,13 @@
         <v>8202</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3781,13 +4000,13 @@
         <v>1002</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -3796,13 +4015,13 @@
         <v>9204</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,13 +4036,13 @@
         <v>223589</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>97</v>
@@ -3832,10 +4051,10 @@
         <v>110153</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>46</v>
@@ -3847,13 +4066,13 @@
         <v>333742</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,19 +4134,19 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>12234</v>
+        <v>9941</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3939,25 +4158,25 @@
         <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M19" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N19" s="7">
-        <v>12234</v>
+        <v>9941</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,49 +4185,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="D20" s="7">
-        <v>226632</v>
+        <v>143393</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H20" s="7">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="I20" s="7">
-        <v>81851</v>
+        <v>57482</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M20" s="7">
-        <v>276</v>
+        <v>181</v>
       </c>
       <c r="N20" s="7">
-        <v>308483</v>
+        <v>200876</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,10 +4236,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>212</v>
+        <v>138</v>
       </c>
       <c r="D21" s="7">
-        <v>238866</v>
+        <v>153334</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4032,10 +4251,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="I21" s="7">
-        <v>81851</v>
+        <v>57482</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4047,10 +4266,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>285</v>
+        <v>189</v>
       </c>
       <c r="N21" s="7">
-        <v>320717</v>
+        <v>210817</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4064,55 +4283,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>127</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>137642</v>
+        <v>2294</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>224</v>
+        <v>36</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H22" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>22706</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>226</v>
+        <v>36</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2294</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="M22" s="7">
-        <v>147</v>
-      </c>
-      <c r="N22" s="7">
-        <v>160348</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,49 +4340,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1792</v>
+        <v>73</v>
       </c>
       <c r="D23" s="7">
-        <v>1902977</v>
+        <v>83238</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="7">
+        <v>22</v>
+      </c>
+      <c r="I23" s="7">
+        <v>24368</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="7">
+        <v>95</v>
+      </c>
+      <c r="N23" s="7">
+        <v>107606</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H23" s="7">
-        <v>945</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1028102</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="M23" s="7">
-        <v>2737</v>
-      </c>
-      <c r="N23" s="7">
-        <v>2931080</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>239</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,63 +4391,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>74</v>
+      </c>
+      <c r="D24" s="7">
+        <v>85532</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>22</v>
+      </c>
+      <c r="I24" s="7">
+        <v>24368</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>96</v>
+      </c>
+      <c r="N24" s="7">
+        <v>109900</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>127</v>
+      </c>
+      <c r="D25" s="7">
+        <v>137642</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H25" s="7">
+        <v>20</v>
+      </c>
+      <c r="I25" s="7">
+        <v>22706</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="M25" s="7">
+        <v>147</v>
+      </c>
+      <c r="N25" s="7">
+        <v>160348</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1792</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1902977</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H26" s="7">
+        <v>945</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1028102</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2737</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2931079</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1919</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>2040619</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>965</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>1050808</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>2884</v>
       </c>
-      <c r="N24" s="7">
-        <v>3091428</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>131</v>
+      <c r="N27" s="7">
+        <v>3091427</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4241,8 +4616,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B865A21A-85FE-46E7-879A-4991F7BD6AB8}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823881CC-6195-4099-9CED-D94ABF8E50DE}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4258,7 +4633,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4365,13 +4740,13 @@
         <v>19091</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4380,13 +4755,13 @@
         <v>12140</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>186</v>
+        <v>99</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="M4" s="7">
         <v>28</v>
@@ -4395,13 +4770,13 @@
         <v>31231</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,13 +4791,13 @@
         <v>236081</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="H5" s="7">
         <v>164</v>
@@ -4431,13 +4806,13 @@
         <v>159456</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>191</v>
+        <v>105</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="M5" s="7">
         <v>389</v>
@@ -4446,13 +4821,13 @@
         <v>395537</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,13 +4895,13 @@
         <v>25803</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4535,13 +4910,13 @@
         <v>8408</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="M7" s="7">
         <v>33</v>
@@ -4550,13 +4925,13 @@
         <v>34210</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,13 +4946,13 @@
         <v>340784</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="H8" s="7">
         <v>221</v>
@@ -4586,13 +4961,13 @@
         <v>217186</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M8" s="7">
         <v>551</v>
@@ -4601,13 +4976,13 @@
         <v>557971</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,13 +5050,13 @@
         <v>13747</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4690,13 +5065,13 @@
         <v>2741</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -4705,13 +5080,13 @@
         <v>16488</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,13 +5101,13 @@
         <v>417607</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H11" s="7">
         <v>245</v>
@@ -4741,13 +5116,13 @@
         <v>246359</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="M11" s="7">
         <v>643</v>
@@ -4756,13 +5131,13 @@
         <v>663966</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,13 +5205,13 @@
         <v>25627</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -4845,13 +5220,13 @@
         <v>8766</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -4860,13 +5235,13 @@
         <v>34394</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,10 +5256,10 @@
         <v>365035</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>27</v>
@@ -4896,13 +5271,13 @@
         <v>256444</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="M14" s="7">
         <v>563</v>
@@ -4911,13 +5286,13 @@
         <v>621478</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,13 +5360,13 @@
         <v>16440</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5000,13 +5375,13 @@
         <v>4172</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -5015,13 +5390,13 @@
         <v>20612</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,13 +5411,13 @@
         <v>269107</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="H17" s="7">
         <v>110</v>
@@ -5051,13 +5426,13 @@
         <v>126459</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="M17" s="7">
         <v>349</v>
@@ -5066,10 +5441,10 @@
         <v>395565</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>61</v>
@@ -5134,19 +5509,19 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>4463</v>
+        <v>2036</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>315</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>292</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5155,28 +5530,28 @@
         <v>1074</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>316</v>
+        <v>175</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="M19" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>5536</v>
+        <v>3110</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,49 +5560,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>277</v>
+        <v>169</v>
       </c>
       <c r="D20" s="7">
-        <v>266451</v>
+        <v>173451</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>48</v>
+        <v>299</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>321</v>
+        <v>46</v>
       </c>
       <c r="H20" s="7">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="I20" s="7">
-        <v>103103</v>
+        <v>66529</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>322</v>
+        <v>182</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="M20" s="7">
-        <v>362</v>
+        <v>229</v>
       </c>
       <c r="N20" s="7">
-        <v>369555</v>
+        <v>239980</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,10 +5611,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>281</v>
+        <v>171</v>
       </c>
       <c r="D21" s="7">
-        <v>270914</v>
+        <v>175487</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5251,10 +5626,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="I21" s="7">
-        <v>104177</v>
+        <v>67603</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5266,10 +5641,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>367</v>
+        <v>232</v>
       </c>
       <c r="N21" s="7">
-        <v>375091</v>
+        <v>243090</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5283,55 +5658,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>105170</v>
+        <v>2426</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>327</v>
+        <v>36</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="7">
-        <v>37300</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>169</v>
-      </c>
       <c r="K22" s="7" t="s">
-        <v>329</v>
+        <v>100</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>330</v>
+        <v>258</v>
       </c>
       <c r="M22" s="7">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>142471</v>
+        <v>2426</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>331</v>
+        <v>36</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,49 +5715,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1798</v>
+        <v>108</v>
       </c>
       <c r="D23" s="7">
-        <v>1895066</v>
+        <v>93001</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>335</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
-        <v>1059</v>
+        <v>25</v>
       </c>
       <c r="I23" s="7">
-        <v>1109007</v>
+        <v>36575</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>337</v>
+        <v>30</v>
       </c>
       <c r="M23" s="7">
-        <v>2857</v>
+        <v>133</v>
       </c>
       <c r="N23" s="7">
-        <v>3004073</v>
+        <v>129575</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>339</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,63 +5766,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>110</v>
+      </c>
+      <c r="D24" s="7">
+        <v>95427</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>25</v>
+      </c>
+      <c r="I24" s="7">
+        <v>36575</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>135</v>
+      </c>
+      <c r="N24" s="7">
+        <v>132001</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>94</v>
+      </c>
+      <c r="D25" s="7">
+        <v>105170</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H25" s="7">
+        <v>36</v>
+      </c>
+      <c r="I25" s="7">
+        <v>37300</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="M25" s="7">
+        <v>130</v>
+      </c>
+      <c r="N25" s="7">
+        <v>142471</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1798</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1895066</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1059</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1109007</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2857</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3004072</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1892</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>2000236</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>1095</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>1146307</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>2987</v>
       </c>
-      <c r="N24" s="7">
-        <v>3146544</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>131</v>
+      <c r="N27" s="7">
+        <v>3146543</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5460,8 +5991,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2FB91F-48A2-4B2D-B85F-1B3BBA17597E}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD031EE1-4CAD-48C6-88BD-A3B6015F3039}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5477,7 +6008,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5581,46 +6112,46 @@
         <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>10520</v>
+        <v>11362</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>6586</v>
+        <v>5898</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>17107</v>
+        <v>17260</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>348</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5632,46 +6163,46 @@
         <v>65</v>
       </c>
       <c r="D5" s="7">
-        <v>150696</v>
+        <v>158541</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="H5" s="7">
         <v>62</v>
       </c>
       <c r="I5" s="7">
-        <v>106244</v>
+        <v>94953</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="M5" s="7">
         <v>127</v>
       </c>
       <c r="N5" s="7">
-        <v>256938</v>
+        <v>253493</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>358</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,7 +6214,7 @@
         <v>70</v>
       </c>
       <c r="D6" s="7">
-        <v>161216</v>
+        <v>169903</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5698,7 +6229,7 @@
         <v>67</v>
       </c>
       <c r="I6" s="7">
-        <v>112830</v>
+        <v>100851</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5713,7 +6244,7 @@
         <v>137</v>
       </c>
       <c r="N6" s="7">
-        <v>274045</v>
+        <v>270753</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5736,46 +6267,46 @@
         <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>14076</v>
+        <v>15879</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>359</v>
+        <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>6004</v>
+        <v>5123</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>20080</v>
+        <v>21001</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>73</v>
+        <v>378</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5787,46 +6318,46 @@
         <v>143</v>
       </c>
       <c r="D8" s="7">
-        <v>213315</v>
+        <v>214256</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>367</v>
+        <v>25</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="H8" s="7">
         <v>137</v>
       </c>
       <c r="I8" s="7">
-        <v>145868</v>
+        <v>137130</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="M8" s="7">
         <v>280</v>
       </c>
       <c r="N8" s="7">
-        <v>359183</v>
+        <v>351387</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>80</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,7 +6369,7 @@
         <v>155</v>
       </c>
       <c r="D9" s="7">
-        <v>227391</v>
+        <v>230135</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5853,7 +6384,7 @@
         <v>141</v>
       </c>
       <c r="I9" s="7">
-        <v>151872</v>
+        <v>142253</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5868,7 +6399,7 @@
         <v>296</v>
       </c>
       <c r="N9" s="7">
-        <v>379263</v>
+        <v>372388</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5891,46 +6422,46 @@
         <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>18288</v>
+        <v>17639</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>375</v>
+        <v>19</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>3711</v>
+        <v>3360</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
       </c>
       <c r="N10" s="7">
-        <v>21999</v>
+        <v>20999</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>278</v>
+        <v>394</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,46 +6473,46 @@
         <v>251</v>
       </c>
       <c r="D11" s="7">
-        <v>270335</v>
+        <v>264544</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>383</v>
+        <v>28</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="H11" s="7">
         <v>224</v>
       </c>
       <c r="I11" s="7">
-        <v>156486</v>
+        <v>147454</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="M11" s="7">
         <v>475</v>
       </c>
       <c r="N11" s="7">
-        <v>426820</v>
+        <v>411998</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,7 +6524,7 @@
         <v>270</v>
       </c>
       <c r="D12" s="7">
-        <v>288623</v>
+        <v>282183</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6008,7 +6539,7 @@
         <v>229</v>
       </c>
       <c r="I12" s="7">
-        <v>160197</v>
+        <v>150814</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6023,7 +6554,7 @@
         <v>499</v>
       </c>
       <c r="N12" s="7">
-        <v>448819</v>
+        <v>432997</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6046,46 +6577,46 @@
         <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>15972</v>
+        <v>15219</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>4006</v>
+        <v>3645</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>152</v>
+        <v>409</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
       </c>
       <c r="N13" s="7">
-        <v>19978</v>
+        <v>18864</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>398</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6097,46 +6628,46 @@
         <v>318</v>
       </c>
       <c r="D14" s="7">
-        <v>337717</v>
+        <v>328885</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="H14" s="7">
         <v>316</v>
       </c>
       <c r="I14" s="7">
-        <v>200330</v>
+        <v>188185</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>161</v>
+        <v>416</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="M14" s="7">
         <v>634</v>
       </c>
       <c r="N14" s="7">
-        <v>538046</v>
+        <v>517070</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>405</v>
+        <v>353</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6148,7 +6679,7 @@
         <v>334</v>
       </c>
       <c r="D15" s="7">
-        <v>353689</v>
+        <v>344104</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6163,7 +6694,7 @@
         <v>323</v>
       </c>
       <c r="I15" s="7">
-        <v>204336</v>
+        <v>191830</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6178,7 +6709,7 @@
         <v>657</v>
       </c>
       <c r="N15" s="7">
-        <v>558024</v>
+        <v>535934</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6201,46 +6732,46 @@
         <v>28</v>
       </c>
       <c r="D16" s="7">
-        <v>26370</v>
+        <v>24697</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>5089</v>
+        <v>4724</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="M16" s="7">
         <v>36</v>
       </c>
       <c r="N16" s="7">
-        <v>31459</v>
+        <v>29420</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6252,46 +6783,46 @@
         <v>277</v>
       </c>
       <c r="D17" s="7">
-        <v>252057</v>
+        <v>238317</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="H17" s="7">
         <v>232</v>
       </c>
       <c r="I17" s="7">
-        <v>139875</v>
+        <v>130033</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="M17" s="7">
         <v>509</v>
       </c>
       <c r="N17" s="7">
-        <v>391932</v>
+        <v>368351</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6303,7 +6834,7 @@
         <v>305</v>
       </c>
       <c r="D18" s="7">
-        <v>278427</v>
+        <v>263014</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6318,7 +6849,7 @@
         <v>240</v>
       </c>
       <c r="I18" s="7">
-        <v>144964</v>
+        <v>134757</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6333,7 +6864,7 @@
         <v>545</v>
       </c>
       <c r="N18" s="7">
-        <v>423391</v>
+        <v>397771</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6353,49 +6884,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D19" s="7">
-        <v>13543</v>
+        <v>11688</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>223</v>
+        <v>440</v>
       </c>
       <c r="H19" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>1835</v>
+        <v>1173</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="M19" s="7">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N19" s="7">
-        <v>15378</v>
+        <v>12861</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>429</v>
+        <v>118</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>280</v>
+        <v>443</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>243</v>
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6404,49 +6935,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>433</v>
+        <v>270</v>
       </c>
       <c r="D20" s="7">
-        <v>294819</v>
+        <v>178308</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>232</v>
+        <v>446</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="H20" s="7">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="I20" s="7">
-        <v>220058</v>
+        <v>278226</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="M20" s="7">
-        <v>632</v>
+        <v>417</v>
       </c>
       <c r="N20" s="7">
-        <v>514878</v>
+        <v>456534</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>434</v>
+        <v>127</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>252</v>
+        <v>450</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>289</v>
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6455,10 +6986,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>453</v>
+        <v>288</v>
       </c>
       <c r="D21" s="7">
-        <v>308362</v>
+        <v>189996</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6470,10 +7001,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="I21" s="7">
-        <v>221893</v>
+        <v>279399</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6485,10 +7016,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>657</v>
+        <v>438</v>
       </c>
       <c r="N21" s="7">
-        <v>530256</v>
+        <v>469395</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6502,55 +7033,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>98770</v>
+        <v>1252</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>436</v>
+        <v>36</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>437</v>
+        <v>17</v>
       </c>
       <c r="H22" s="7">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>27231</v>
+        <v>564</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>439</v>
+        <v>36</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="M22" s="7">
-        <v>134</v>
+        <v>4</v>
       </c>
       <c r="N22" s="7">
-        <v>126001</v>
+        <v>1816</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>281</v>
+        <v>456</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>442</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6559,49 +7090,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1487</v>
+        <v>163</v>
       </c>
       <c r="D23" s="7">
-        <v>1518938</v>
+        <v>98783</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>444</v>
+        <v>27</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>445</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
-        <v>1170</v>
+        <v>52</v>
       </c>
       <c r="I23" s="7">
-        <v>968860</v>
+        <v>26191</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>448</v>
+        <v>46</v>
       </c>
       <c r="M23" s="7">
-        <v>2657</v>
+        <v>215</v>
       </c>
       <c r="N23" s="7">
-        <v>2487797</v>
+        <v>124975</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>450</v>
+        <v>299</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6610,63 +7141,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>165</v>
+      </c>
+      <c r="D24" s="7">
+        <v>100035</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>54</v>
+      </c>
+      <c r="I24" s="7">
+        <v>26755</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>219</v>
+      </c>
+      <c r="N24" s="7">
+        <v>126791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>100</v>
+      </c>
+      <c r="D25" s="7">
+        <v>97735</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H25" s="7">
+        <v>34</v>
+      </c>
+      <c r="I25" s="7">
+        <v>24487</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="M25" s="7">
+        <v>134</v>
+      </c>
+      <c r="N25" s="7">
+        <v>122222</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1487</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1481636</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1170</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1002172</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2657</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2483807</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1587</v>
       </c>
-      <c r="D24" s="7">
-        <v>1617708</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>1579371</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>1204</v>
       </c>
-      <c r="I24" s="7">
-        <v>996091</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>1026659</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>2791</v>
       </c>
-      <c r="N24" s="7">
-        <v>2613798</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>131</v>
+      <c r="N27" s="7">
+        <v>2606029</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
